--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-24 14:07:35</t>
+          <t>2025-03-24 14:11:53</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-24 14:08:16</t>
+          <t>2025-03-24 14:14:01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-24 14:14:01</t>
+          <t>2025-03-24 14:16:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sratslla</t>
+          <t>actions-user</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-24 14:16:38</t>
+          <t>2025-03-24 14:17:51</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-24 14:17:51</t>
+          <t>2025-03-25 00:40:09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-25 00:40:09</t>
+          <t>2025-03-26 00:39:52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-26 00:39:52</t>
+          <t>2025-03-27 00:39:49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/branch_info.xlsx
+++ b/branch_info.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-27 00:39:49</t>
+          <t>2025-03-28 00:39:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
